--- a/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
+++ b/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="320" windowWidth="18820" windowHeight="6560"/>
+    <workbookView xWindow="315" yWindow="315" windowWidth="18825" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="CApULAbIFM" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="CApULAbIFM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>CApULAbIFM CO2 Abated per Unit Land Area by Improved Forest Management</t>
   </si>
@@ -23,26 +24,50 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>none needed</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>We do not use the Improved Forest Management policy in the Indonesia model.</t>
-  </si>
-  <si>
     <t>CO2 Abated (g)</t>
   </si>
   <si>
     <t>Per Acre</t>
+  </si>
+  <si>
+    <t>Increased Annual CO2 Sequestration Achievable by Improved Management Practices per Acre</t>
+  </si>
+  <si>
+    <t>tons CO2 / acre / yr</t>
+  </si>
+  <si>
+    <t>Low Estimate</t>
+  </si>
+  <si>
+    <t>High Estimate</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>g CO2 / acre / yr</t>
+  </si>
+  <si>
+    <t>Average, converted to grams CO2</t>
+  </si>
+  <si>
+    <t>U.S. EPA</t>
+  </si>
+  <si>
+    <t>Greenhouse Gas Mitigation Potential in U.S. Forestry and Agriculture</t>
+  </si>
+  <si>
+    <t>http://www.epa.gov/climate/climatechange/Downloads/ccs/ghg_mitigation_forestry_ag_2005.pdf</t>
+  </si>
+  <si>
+    <t>Page 2-3, Table 2-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +79,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,17 +109,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,33 +426,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>AVERAGE(A2:A3)</f>
+        <v>2.6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>A4*10^6</f>
+        <v>2600000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -420,7 +548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -429,22 +557,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Calculations!A6</f>
+        <v>2600000</v>
       </c>
     </row>
   </sheetData>
